--- a/va_facility_data_2025-02-20/Tucker County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Tucker%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Tucker County VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Tucker%20County%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R9c55ed8902ba4e389ef08c6f8d6d7f31"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rb4027c4a6272400ab38c4d9cabfef397"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rcddb0342bcc34c579f2140de50a123bc"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R0a285767894c4d7fa8d5eceb1d132744"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R808fd67fc0a54f19abe7d7b4abfb5125"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R49b02a117efa42b99d40da93b8d0890d"/>
   </x:sheets>
 </x:workbook>
 </file>
